--- a/contratos/Bancrevea/Invoice_Bancrevea_CasaSilvane.xlsx
+++ b/contratos/Bancrevea/Invoice_Bancrevea_CasaSilvane.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoel Jr\Documents\cop30-main\cop30\contratos\Bancrevea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA42C5-6028-4D0F-9D8A-CA46B9FDFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7310D6A9-265C-481C-B0E0-90C94B6C3F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E8DEFB7-37FE-48B8-BD42-6D432AF2965B}"/>
   </bookViews>
   <sheets>
-    <sheet name="SILVANE" sheetId="8" r:id="rId1"/>
-    <sheet name="ALDERICO" sheetId="10" r:id="rId2"/>
+    <sheet name="SILVANE 20%" sheetId="8" r:id="rId1"/>
+    <sheet name="ALDERICO 20%" sheetId="10" r:id="rId2"/>
+    <sheet name="SILVANE 30%" sheetId="12" r:id="rId3"/>
+    <sheet name="ALDERICO 30%" sheetId="11" r:id="rId4"/>
+    <sheet name="SILVANE 50%" sheetId="13" r:id="rId5"/>
+    <sheet name="ALDERICO 50%" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>Customer:</t>
   </si>
@@ -79,16 +83,73 @@
     <t>CPF (Tax ID):  410117162-91</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Address Client</t>
+    <t>SILVANE DE FATIMA SILVA BALTAZAR</t>
+  </si>
+  <si>
+    <t>Agency 3106-2 Bank account 58365-0</t>
+  </si>
+  <si>
+    <t>IBAN Code: BR7500000000031060000583650C1</t>
+  </si>
+  <si>
+    <t>SWIFT Code: BRASBRRJSBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDERICO RIBEIRO AIRES FILHO </t>
+  </si>
+  <si>
+    <t>CPF (Tax ID):  056401052-91</t>
+  </si>
+  <si>
+    <t>Agency 3024-4 Bank account 7693-7</t>
+  </si>
+  <si>
+    <t>IBAN Code: BR8600000000030240000076937C1</t>
+  </si>
+  <si>
+    <t>GAIA - Global Alliance for Incinerator Alternatives</t>
+  </si>
+  <si>
+    <t>1958 University Avenue Berkeley CA 94704 USA</t>
+  </si>
+  <si>
+    <t>002/2025</t>
+  </si>
+  <si>
+    <t>003/2025</t>
+  </si>
+  <si>
+    <t>004/2025</t>
+  </si>
+  <si>
+    <t>005/2025</t>
+  </si>
+  <si>
+    <t>006/2025</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Provision of accommodation services at the property
 located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
-during the COP30 event, between 9 and 23 November 2025 - </t>
+during the COP30 event, between 8 and 22 November 2025 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THIRD INSTALLMENT PART 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provision of accommodation services at the property
+located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
+during the COP30 event, between 8 and 22 November 2025 - </t>
     </r>
     <r>
       <rPr>
@@ -103,34 +164,10 @@
     </r>
   </si>
   <si>
-    <t>SILVANE DE FATIMA SILVA BALTAZAR</t>
-  </si>
-  <si>
-    <t>Agency 3106-2 Bank account 58365-0</t>
-  </si>
-  <si>
-    <t>IBAN Code: BR7500000000031060000583650C1</t>
-  </si>
-  <si>
-    <t>SWIFT Code: BRASBRRJSBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDERICO RIBEIRO AIRES FILHO </t>
-  </si>
-  <si>
-    <t>CPF (Tax ID):  056401052-91</t>
-  </si>
-  <si>
-    <t>Agency 3024-4 Bank account 7693-7</t>
-  </si>
-  <si>
-    <t>IBAN Code: BR8600000000030240000076937C1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Provision of accommodation services at the property
 located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
-during the COP30 event, between 9 and 23 November 2025 - </t>
+during the COP30 event, between 8 and 22 November 2025 - </t>
     </r>
     <r>
       <rPr>
@@ -144,6 +181,60 @@
       <t>FIRST INSTALLMENT PART 2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provision of accommodation services at the property
+located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
+during the COP30 event, between 8 and 22 November 2025 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SECOND INSTALLMENT PART 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provision of accommodation services at the property
+located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
+during the COP30 event, between 8 and 22 November 2025 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SECOND INSTALLMENT PART 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provision of accommodation services at the property
+located at Alameda Bancrévea n. 184, Souza, Belém, Pará/Brazil, CEP 66613-375,
+during the COP30 event, between 8 and 22 November 2025 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THIRD INSTALLMENT PART 1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +244,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +295,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,7 +502,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,10 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,7 +600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,7 +651,63 @@
     <cellStyle name="Normal_Ficha de Cadastro Pessoa Jurídica Banco - Contábil" xfId="2" xr:uid="{165C4930-D7F6-489E-A682-93C2B44E520F}"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -915,8 +1052,8 @@
   </sheetPr>
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,12 +1090,12 @@
     </row>
     <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
-      <c r="C4" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="J4" s="34" t="s">
+      <c r="C4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="9"/>
@@ -970,7 +1107,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -981,7 +1118,7 @@
       <c r="D6" s="11"/>
       <c r="G6" s="11"/>
       <c r="J6" s="26">
-        <v>45838</v>
+        <v>45846</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -992,12 +1129,12 @@
       </c>
       <c r="D7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="28">
-        <v>45843</v>
+        <v>45848</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -1026,7 +1163,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>2</v>
@@ -1036,7 +1173,7 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K11" s="9"/>
     </row>
@@ -1050,15 +1187,15 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="15" t="s">
         <v>4</v>
       </c>
@@ -1066,13 +1203,13 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="16" t="s">
         <v>9</v>
       </c>
@@ -1080,41 +1217,41 @@
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="17">
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="18"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="24"/>
       <c r="K18" s="9"/>
     </row>
@@ -1143,7 +1280,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3">
         <f>SUM(J16:J19)</f>
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="K20" s="9"/>
     </row>
@@ -1168,11 +1305,11 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
-      <c r="F25" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -1206,7 +1343,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -1219,7 +1356,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -1232,7 +1369,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -1265,12 +1402,12 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(J18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(J4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1287,8 +1424,8 @@
   </sheetPr>
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,13 +1462,13 @@
     </row>
     <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
-      <c r="C4" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="J4" s="34" t="s">
-        <v>8</v>
+      <c r="C4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -1342,7 +1479,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,23 +1490,23 @@
       <c r="D6" s="11"/>
       <c r="G6" s="11"/>
       <c r="J6" s="26">
-        <v>45838</v>
+        <v>45846</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="28">
-        <v>45843</v>
+        <v>45848</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -1397,8 +1534,8 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="29" t="s">
-        <v>14</v>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>2</v>
@@ -1407,8 +1544,8 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
-      <c r="C11" s="29" t="s">
-        <v>15</v>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="K11" s="9"/>
     </row>
@@ -1422,15 +1559,15 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="15" t="s">
         <v>4</v>
       </c>
@@ -1438,13 +1575,13 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="16" t="s">
         <v>9</v>
       </c>
@@ -1452,41 +1589,41 @@
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="17">
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="18"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="24"/>
       <c r="K18" s="9"/>
     </row>
@@ -1515,7 +1652,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3">
         <f>SUM(J16:J19)</f>
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="K20" s="9"/>
     </row>
@@ -1540,11 +1677,11 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
-      <c r="F25" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -1578,7 +1715,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -1591,7 +1728,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -1604,7 +1741,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -1637,12 +1774,1500 @@
     <mergeCell ref="C18:I18"/>
   </mergeCells>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(J18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(J4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C592A05-1628-45D0-84C6-88B0FE6C1E0E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="7"/>
+    <col min="4" max="4" width="12.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="7"/>
+    <col min="6" max="6" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7"/>
+    <col min="8" max="8" width="11.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="26">
+        <v>45846</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="28">
+        <v>45879</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="17">
+        <v>5250</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3">
+        <f>SUM(J16:J19)</f>
+        <v>5250</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
+      <formula>LEN(TRIM(J18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(J4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EE2D24-CA8D-440E-8B2C-230A52EC2B3B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="7"/>
+    <col min="4" max="4" width="12.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="7"/>
+    <col min="6" max="6" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7"/>
+    <col min="8" max="8" width="11.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="26">
+        <v>45846</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="28">
+        <v>45879</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="17">
+        <v>5250</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3">
+        <f>SUM(J16:J19)</f>
+        <v>5250</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="F25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(J18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(J4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE047E6-0378-4115-AA79-6EA02FDF88C6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="7"/>
+    <col min="4" max="4" width="12.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="7"/>
+    <col min="6" max="6" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7"/>
+    <col min="8" max="8" width="11.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="26">
+        <v>45846</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="28">
+        <v>45960</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="17">
+        <v>8750</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3">
+        <f>SUM(J16:J19)</f>
+        <v>8750</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(J18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(J4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95DE497-7939-474B-985C-A4D71073246A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="7"/>
+    <col min="4" max="4" width="12.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="7"/>
+    <col min="6" max="6" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7"/>
+    <col min="8" max="8" width="11.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="J4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="26">
+        <v>45846</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="28">
+        <v>45960</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="17">
+        <v>8750</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3">
+        <f>SUM(J16:J19)</f>
+        <v>8750</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="F25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(J18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(J4))=0</formula>
     </cfRule>
   </conditionalFormatting>
